--- a/yield_trend_6.xlsx
+++ b/yield_trend_6.xlsx
@@ -10,6 +10,7 @@
     <sheet name="FT1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="FT2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="FT3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -190,6 +191,7 @@
               <f>'FT1'!$F$2:$F$27</f>
             </numRef>
           </val>
+          <smooth val="0"/>
         </ser>
         <ser>
           <idx val="1"/>
@@ -222,6 +224,7 @@
               <f>'FT1'!$G$2:$G$27</f>
             </numRef>
           </val>
+          <smooth val="0"/>
         </ser>
         <ser>
           <idx val="2"/>
@@ -310,6 +313,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
+        <tickLblSkip val="1"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -437,6 +441,7 @@
               <f>'FT2'!$F$2:$F$15</f>
             </numRef>
           </val>
+          <smooth val="0"/>
         </ser>
         <ser>
           <idx val="1"/>
@@ -469,6 +474,7 @@
               <f>'FT2'!$G$2:$G$15</f>
             </numRef>
           </val>
+          <smooth val="0"/>
         </ser>
         <ser>
           <idx val="2"/>
@@ -557,6 +563,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
+        <tickLblSkip val="1"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -684,6 +691,7 @@
               <f>'FT3'!$F$2:$F$15</f>
             </numRef>
           </val>
+          <smooth val="0"/>
         </ser>
         <ser>
           <idx val="1"/>
@@ -716,6 +724,7 @@
               <f>'FT3'!$G$2:$G$15</f>
             </numRef>
           </val>
+          <smooth val="0"/>
         </ser>
         <ser>
           <idx val="2"/>
@@ -804,6 +813,7 @@
         <minorTickMark val="none"/>
         <crossAx val="100"/>
         <lblOffset val="100"/>
+        <tickLblSkip val="1"/>
       </catAx>
       <valAx>
         <axId val="100"/>
@@ -3347,4 +3357,114 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>平均</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>標準差</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>最大值</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最小值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FT1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9762346153846154</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.009617356905416055</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FT2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9962285714285715</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.002600126793189011</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FT3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9783785714285714</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01714589785303801</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9976</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>